--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value1685.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value1685.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.4823644989164</v>
+        <v>0.7822614908218384</v>
       </c>
       <c r="B1">
-        <v>3.585484338937215</v>
+        <v>1.802002429962158</v>
       </c>
       <c r="C1">
-        <v>2.224366961465226</v>
+        <v>-1</v>
       </c>
       <c r="D1">
-        <v>1.871733056956677</v>
+        <v>2.055581092834473</v>
       </c>
       <c r="E1">
-        <v>1.777292802113061</v>
+        <v>1.465521693229675</v>
       </c>
     </row>
   </sheetData>
